--- a/data/coa.xlsx
+++ b/data/coa.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Departments\Research\Annual Report Charts\UGA Student Aid Analyses\2018-19\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\BookdownPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="3" r:id="rId1"/>
@@ -627,13 +627,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="21.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" style="2" customWidth="1"/>
@@ -6912,7 +6914,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/data/coa.xlsx
+++ b/data/coa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="89">
   <si>
     <t>Undergraduate</t>
   </si>
@@ -260,6 +260,39 @@
   </si>
   <si>
     <t>2017-18</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>0910</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>1819</t>
+  </si>
+  <si>
+    <t>1011</t>
   </si>
 </sst>
 </file>
@@ -305,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -315,6 +348,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +662,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -7300,11 +7335,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B11"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7313,7 +7348,7 @@
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -7332,8 +7367,11 @@
       <c r="F1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>55</v>
       </c>
@@ -7352,8 +7390,11 @@
       <c r="F2" s="5">
         <v>1464</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>56</v>
       </c>
@@ -7372,8 +7413,11 @@
       <c r="F3" s="5">
         <v>1510</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
@@ -7392,8 +7436,11 @@
       <c r="F4" s="5">
         <v>1562</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
@@ -7412,8 +7459,11 @@
       <c r="F5" s="5">
         <v>1590</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
@@ -7432,8 +7482,11 @@
       <c r="F6" s="5">
         <v>1640</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
@@ -7452,8 +7505,11 @@
       <c r="F7" s="5">
         <v>1798</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
@@ -7472,8 +7528,11 @@
       <c r="F8" s="5">
         <v>3222</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>62</v>
       </c>
@@ -7492,8 +7551,11 @@
       <c r="F9" s="5">
         <v>3952</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
@@ -7512,13 +7574,16 @@
       <c r="F10" s="5">
         <v>3540</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5">
         <v>11830</v>
@@ -7531,6 +7596,9 @@
       </c>
       <c r="F11" s="5">
         <v>3834</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -7543,7 +7611,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B79742D3-25CB-49CB-8511-4CCD2ED14FE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF6CB39-1393-42CF-9F4C-8D1D17F8B3F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>
